--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -744,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +841,51 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,49 +907,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,7 +1241,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1241,41 +1262,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1299,97 +1320,97 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="40">
         <v>44909</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="47">
+      <c r="D5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="40">
         <v>44911</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="42">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="51" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="52"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="55">
         <v>44914</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="D6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="55">
         <v>44918</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="57">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="33">
         <v>44921</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="33">
         <v>44925</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B8" s="6" t="s">
@@ -1494,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>6</v>
@@ -1502,9 +1523,9 @@
       <c r="E11" s="7">
         <v>44953</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="F11" s="31">
+        <f>DAYS360(C11,E11)+1</f>
+        <v>3</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>38</v>
@@ -1839,7 +1860,7 @@
       <c r="I21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="46" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -2035,7 +2056,7 @@
       <c r="I27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="46" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2231,7 +2252,7 @@
       <c r="I33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="46" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
@@ -2274,36 +2295,36 @@
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>3주차</t>
   </si>
@@ -239,15 +239,6 @@
     <t>도깨비 PJ v1.</t>
   </si>
   <si>
-    <t>도깨비 PJ v2. / CGV PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / CGV PJ / 보그 PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-  </si>
-  <si>
     <t>보그 PJ</t>
   </si>
   <si>
@@ -263,42 +254,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 서브구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -316,10 +271,6 @@
   </si>
   <si>
     <t>3차 메인구현 리액트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 서브구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -327,17 +278,6 @@
 Javascript 기본</t>
   </si>
   <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본 및 응용</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-JS응용 / jQuery 기본</t>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-  </si>
-  <si>
     <t>Vue JS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -347,10 +287,6 @@
   </si>
   <si>
     <t>React 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -378,6 +314,117 @@
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+와이어프레임 제출(수)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 주제선정/분석설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃코딩
+프로토타입 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,9 +900,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,6 +930,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,27 +976,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1262,41 +1312,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="B2" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1320,325 +1370,325 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>44909</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="D5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39">
         <v>44911</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="47">
         <v>44914</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="55">
+      <c r="D6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="47">
         <v>44918</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="49">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="60"/>
+      <c r="J6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="47">
         <v>44921</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="47">
         <v>44925</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="38"/>
+      <c r="J7" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="47">
         <v>44928</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="47">
         <v>44932</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="53">
         <v>44929</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="13"/>
+      <c r="J8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="47">
         <v>44935</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="47">
         <v>44939</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="13"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="47">
         <v>44942</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="47">
         <v>44946</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="13"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="47">
         <v>44951</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="47">
         <v>44953</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="49">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="53">
         <v>44951</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="I11" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="47">
         <v>44956</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="47">
         <v>44960</v>
       </c>
-      <c r="F12" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="49">
+        <f>DAYS360(C12,E12)+2</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="13"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="47">
         <v>44963</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="47">
         <v>44967</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="13"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="33">
         <v>44970</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="33">
         <v>44974</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="35">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="13"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B15" s="6" t="s">
@@ -1653,22 +1703,22 @@
       <c r="E15" s="7">
         <v>44981</v>
       </c>
-      <c r="F15" s="31">
-        <f>DAYS360(C15,E15)-1</f>
-        <v>3</v>
+      <c r="F15" s="9">
+        <f>DAYS360(C15,E15)+1</f>
+        <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1696,13 +1746,13 @@
         <v>44987</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1728,13 +1778,13 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1760,13 +1810,13 @@
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1792,13 +1842,13 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1824,13 +1874,13 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1858,13 +1908,13 @@
         <v>45019</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1890,13 +1940,13 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="K22" s="12" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1922,13 +1972,13 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1956,13 +2006,13 @@
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -1988,13 +2038,13 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2020,13 +2070,13 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2054,13 +2104,13 @@
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="45" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2086,13 +2136,13 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2118,13 +2168,13 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2150,13 +2200,13 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2184,13 +2234,13 @@
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2216,13 +2266,13 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2250,13 +2300,13 @@
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="45" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2295,36 +2345,36 @@
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="B37" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>3주차</t>
   </si>
@@ -176,10 +176,6 @@
     <t>하이브리드앱/PWA</t>
   </si>
   <si>
-    <t>2023-04-04(화) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>하이브리드앱/PWA
 모바일웹&amp;앱Project</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -188,10 +184,6 @@
     <t>모바일웹&amp;앱Project</t>
   </si>
   <si>
-    <t>2023-05-19(금) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 프론트엔드 개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -204,10 +196,6 @@
     <t>SPA Project</t>
   </si>
   <si>
-    <t>2023-06-30(금) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-07-03(월) 수료식(12:30)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -251,26 +239,6 @@
   </si>
   <si>
     <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 메인구현 리액트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -330,22 +298,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 주제선정/분석설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -384,10 +336,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -425,6 +373,77 @@
   </si>
   <si>
     <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-04(화) 작품발표회
+[1차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-19(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-30(금) 작품발표회
+[3차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀프로젝트 제출 및 발표(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -927,9 +946,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,8 +970,8 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,6 +992,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1312,41 +1331,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1354,13 +1373,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>9</v>
@@ -1398,363 +1417,363 @@
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <v>44914</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="47">
+      <c r="D6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="46">
         <v>44918</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="52"/>
+      <c r="K6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <v>44921</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="47">
+      <c r="D7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="46">
         <v>44925</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="52"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="46">
         <v>44928</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="47">
+      <c r="D8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="46">
         <v>44932</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <v>44929</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="52"/>
+      <c r="I8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <v>44935</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="47">
+      <c r="D9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46">
         <v>44939</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="52"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>44942</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="47">
+      <c r="D10" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46">
         <v>44946</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="52"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>44951</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="47">
+      <c r="D11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="46">
         <v>44953</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <v>44951</v>
       </c>
-      <c r="I11" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="52"/>
+      <c r="I11" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="46">
         <v>44956</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="47">
+      <c r="D12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="46">
         <v>44960</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="52"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <v>44963</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="D13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="46">
         <v>44967</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="46">
         <v>44970</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="46">
         <v>44974</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="48">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="37"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="46">
         <v>44977</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="46">
         <v>44981</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="48">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="13"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="33">
         <v>44984</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="33">
         <v>44988</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="35">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="61">
         <v>44987</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="13"/>
+      <c r="I16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B17" s="6" t="s">
@@ -1778,13 +1797,13 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1810,13 +1829,13 @@
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1842,13 +1861,13 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1874,13 +1893,13 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1908,13 +1927,13 @@
         <v>45019</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1940,13 +1959,13 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1972,13 +1991,13 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -2000,19 +2019,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="14">
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2034,17 +2053,17 @@
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2066,17 +2085,17 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2098,19 +2117,19 @@
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="14">
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2132,17 +2151,17 @@
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2164,17 +2183,17 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2196,23 +2215,23 @@
         <v>4</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="2:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7">
         <v>45089</v>
@@ -2228,25 +2247,25 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" s="14">
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="2:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7">
         <v>45096</v>
@@ -2262,23 +2281,23 @@
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7">
         <v>45103</v>
@@ -2294,25 +2313,25 @@
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="14">
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
       <c r="B34" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="20">
         <v>45110</v>
@@ -2328,14 +2347,14 @@
         <v>1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" s="29">
         <v>45110</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34" s="28"/>
       <c r="L34" s="30"/>
@@ -2349,32 +2368,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="B37" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>3주차</t>
   </si>
@@ -176,10 +171,6 @@
     <t>하이브리드앱/PWA</t>
   </si>
   <si>
-    <t>2023-04-04(화) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>하이브리드앱/PWA
 모바일웹&amp;앱Project</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -188,10 +179,6 @@
     <t>모바일웹&amp;앱Project</t>
   </si>
   <si>
-    <t>2023-05-19(금) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 프론트엔드 개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -204,10 +191,6 @@
     <t>SPA Project</t>
   </si>
   <si>
-    <t>2023-06-30(금) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-07-03(월) 수료식(12:30)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -239,15 +222,6 @@
     <t>도깨비 PJ v1.</t>
   </si>
   <si>
-    <t>도깨비 PJ v2. / CGV PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / CGV PJ / 보그 PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-  </si>
-  <si>
     <t>보그 PJ</t>
   </si>
   <si>
@@ -260,66 +234,6 @@
   </si>
   <si>
     <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 서브구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 메인구현 리액트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 서브구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -327,17 +241,6 @@
 Javascript 기본</t>
   </si>
   <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본 및 응용</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-JS응용 / jQuery 기본</t>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-  </si>
-  <si>
     <t>Vue JS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -347,10 +250,6 @@
   </si>
   <si>
     <t>React 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -378,13 +277,175 @@
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+와이어프레임 제출(수)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃코딩
+프로토타입 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-04(화) 작품발표회
+[1차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-19(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-30(금) 작품발표회
+[3차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀프로젝트 제출 및 발표(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -744,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,9 +914,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,7 +941,34 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,27 +990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,11 +1304,11 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1260,43 +1324,43 @@
     <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1304,13 +1368,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>9</v>
@@ -1319,458 +1383,458 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>44909</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="D5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39">
         <v>44911</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="L5" s="44"/>
+    </row>
+    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="46">
         <v>44914</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="55">
+      <c r="D6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="46">
         <v>44918</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="48">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="32" t="s">
+      <c r="K6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="46">
         <v>44921</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="46">
         <v>44925</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="46">
         <v>44928</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="46">
         <v>44932</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="52">
         <v>44929</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="6" t="s">
+      <c r="I8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="46">
         <v>44935</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46">
         <v>44939</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="K9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="46">
         <v>44942</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46">
         <v>44946</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="6" t="s">
+      <c r="H10" s="49"/>
+      <c r="I10" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="46">
         <v>44951</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="46">
         <v>44953</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="48">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="52">
         <v>44951</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="I11" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B12" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="46">
         <v>44956</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="46">
         <v>44960</v>
       </c>
-      <c r="F12" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="48">
+        <f>DAYS360(C12,E12)+2</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="46">
         <v>44963</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="46">
         <v>44967</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="6" t="s">
+      <c r="L13" s="51"/>
+    </row>
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="46">
         <v>44970</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="46">
         <v>44974</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="48">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="H14" s="49"/>
+      <c r="I14" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="46">
         <v>44977</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="46">
         <v>44981</v>
       </c>
-      <c r="F15" s="31">
-        <f>DAYS360(C15,E15)-1</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="48">
+        <f>DAYS360(C15,E15)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="6" t="s">
+      <c r="H15" s="49"/>
+      <c r="I15" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="46">
         <v>44984</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="46">
         <v>44988</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="48">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="52">
         <v>44987</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="6" t="s">
+      <c r="I16" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B17" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="46">
         <v>44991</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="46">
         <v>44995</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="48">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="6" t="s">
+      <c r="H17" s="49"/>
+      <c r="I17" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="33">
         <v>44998</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="33">
         <v>45002</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="H18" s="54"/>
+      <c r="I18" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1792,17 +1856,17 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1824,17 +1888,17 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1858,17 +1922,17 @@
         <v>45019</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1890,17 +1954,17 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1922,17 +1986,17 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1">
+    <row r="24" spans="1:12" ht="55.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1950,23 +2014,23 @@
         <v>5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="14">
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1">
+    <row r="25" spans="1:12" ht="57.75" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1984,21 +2048,21 @@
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1">
+    <row r="26" spans="1:12" ht="51" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -2016,21 +2080,21 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1">
+    <row r="27" spans="1:12" ht="51" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -2048,23 +2112,23 @@
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="14">
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1">
+    <row r="28" spans="1:12" ht="51" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -2082,21 +2146,21 @@
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1">
+    <row r="29" spans="1:12" ht="51" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -2114,21 +2178,21 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1">
+    <row r="30" spans="1:12" ht="51" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
@@ -2146,23 +2210,23 @@
         <v>4</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="2:12" ht="51" customHeight="1">
+    <row r="31" spans="1:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7">
         <v>45089</v>
@@ -2178,25 +2242,25 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" s="14">
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="2:12" ht="51" customHeight="1">
+    <row r="32" spans="1:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7">
         <v>45096</v>
@@ -2212,23 +2276,23 @@
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7">
         <v>45103</v>
@@ -2244,25 +2308,25 @@
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="14">
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
       <c r="B34" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="20">
         <v>45110</v>
@@ -2278,14 +2342,14 @@
         <v>1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" s="29">
         <v>45110</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34" s="28"/>
       <c r="L34" s="30"/>
@@ -2295,36 +2359,36 @@
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+      <c r="B37" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2346,7 +2410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,7 +2423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>3주차</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 레이아웃코딩
 프로토타입 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -439,6 +435,15 @@
   <si>
     <t>1차 상세코딩
 팀프로젝트 제출 및 발표(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용
+Vue JS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -968,9 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,6 +992,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1310,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1326,41 +1331,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1536,7 @@
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>61</v>
@@ -1563,13 +1568,13 @@
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="51"/>
     </row>
@@ -1597,13 +1602,13 @@
         <v>44951</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>74</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="51"/>
     </row>
@@ -1629,13 +1634,13 @@
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="50" t="s">
         <v>79</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>80</v>
       </c>
       <c r="L12" s="51"/>
     </row>
@@ -1661,13 +1666,13 @@
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="51"/>
     </row>
@@ -1693,13 +1698,13 @@
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="51"/>
     </row>
@@ -1725,13 +1730,13 @@
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="51"/>
     </row>
@@ -1762,10 +1767,10 @@
         <v>58</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" s="51"/>
     </row>
@@ -1794,143 +1799,143 @@
         <v>58</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="46">
         <v>44998</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="46">
         <v>45002</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="36" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="37"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="46">
         <v>45005</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="46">
         <v>45009</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="49"/>
+      <c r="I19" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="13"/>
+      <c r="J19" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="46">
         <v>45012</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="46">
         <v>45016</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="33">
         <v>45019</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="33">
         <v>45023</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="35">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="61">
         <v>45019</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B22" s="6" t="s">
@@ -1957,10 +1962,10 @@
         <v>59</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -2121,7 +2126,7 @@
         <v>59</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>64</v>
@@ -2153,7 +2158,7 @@
         <v>59</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>65</v>
@@ -2185,7 +2190,7 @@
         <v>59</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>65</v>
@@ -2217,7 +2222,7 @@
         <v>59</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>65</v>
@@ -2251,7 +2256,7 @@
         <v>59</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>66</v>
@@ -2283,7 +2288,7 @@
         <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>66</v>
@@ -2317,7 +2322,7 @@
         <v>59</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>66</v>
@@ -2363,32 +2368,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
